--- a/paper/tables/tables.xlsx
+++ b/paper/tables/tables.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\peleke\paper\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFC32E7F-CAFE-4E2F-A973-EDC251D83D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C578A19D-130D-4EDA-B066-5DF8AE41138F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46680" yWindow="2010" windowWidth="28800" windowHeight="17835" xr2:uid="{74FBB4F4-0BB2-49E8-8273-9D963BDE2F1A}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{74FBB4F4-0BB2-49E8-8273-9D963BDE2F1A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Training Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Models" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>pdb_id</t>
   </si>
@@ -154,13 +154,80 @@
   </si>
   <si>
     <t>A:ARG 176|A:ASP 146|A:ASP 150…</t>
+  </si>
+  <si>
+    <t>Base Model</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Parameters Tuned</t>
+  </si>
+  <si>
+    <t>Phi-4</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>8.03B</t>
+  </si>
+  <si>
+    <t>14.7B</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Llama-3.1-8B-Instruct</t>
+  </si>
+  <si>
+    <t>Mistral-7B-Instruct-v0.2</t>
+  </si>
+  <si>
+    <t>Mistral</t>
+  </si>
+  <si>
+    <t>7.24B</t>
+  </si>
+  <si>
+    <t>Dayhoff-3b-UR90</t>
+  </si>
+  <si>
+    <t>2.98B</t>
+  </si>
+  <si>
+    <t>PEFT Target Modules</t>
+  </si>
+  <si>
+    <t>o_proj, qkv_proj</t>
+  </si>
+  <si>
+    <t>All Linear</t>
+  </si>
+  <si>
+    <t>q_proj, v_proj, k_proj, o_proj</t>
+  </si>
+  <si>
+    <t>Trainable %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,14 +253,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -528,7 +599,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,4 +766,127 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B35D60D-911C-4EDB-99B2-BF1A224F3467}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7372800</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5.0299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2097152</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2.6100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="1">
+        <v>13631488</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.879E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/paper/tables/tables.xlsx
+++ b/paper/tables/tables.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\peleke\paper\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C578A19D-130D-4EDA-B066-5DF8AE41138F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE20CB58-AEE1-496D-B9A0-A740FC8AE89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{74FBB4F4-0BB2-49E8-8273-9D963BDE2F1A}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{74FBB4F4-0BB2-49E8-8273-9D963BDE2F1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Training Data" sheetId="1" r:id="rId1"/>
     <sheet name="Models" sheetId="2" r:id="rId2"/>
+    <sheet name="VDW_Hits" sheetId="3" r:id="rId3"/>
+    <sheet name="VDW_Hits (RAW)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>pdb_id</t>
   </si>
@@ -214,6 +216,63 @@
   </si>
   <si>
     <t>Trainable %</t>
+  </si>
+  <si>
+    <t>Antigen</t>
+  </si>
+  <si>
+    <t>Peleke Fine-Tuned Model</t>
+  </si>
+  <si>
+    <t>llama-3.1-8b-instruct</t>
+  </si>
+  <si>
+    <t>BBF-14</t>
+  </si>
+  <si>
+    <t>BHRF1</t>
+  </si>
+  <si>
+    <t>EGFR</t>
+  </si>
+  <si>
+    <t>IL-7Ra</t>
+  </si>
+  <si>
+    <t>MBP</t>
+  </si>
+  <si>
+    <t>PD-1</t>
+  </si>
+  <si>
+    <t>PD-L1</t>
+  </si>
+  <si>
+    <t>mistral-7b-instruct-v0.2</t>
+  </si>
+  <si>
+    <t>phi-4</t>
+  </si>
+  <si>
+    <t>antigen_id</t>
+  </si>
+  <si>
+    <t>percentage_hits_peleke-llama-3.1-8b-instruct</t>
+  </si>
+  <si>
+    <t>percentage_hits_peleke-mistral-7b-instruct-v0.2</t>
+  </si>
+  <si>
+    <t>percentage_hits_peleke-phi-4</t>
+  </si>
+  <si>
+    <t>median_score_peleke-llama-3.1-8b-instruct</t>
+  </si>
+  <si>
+    <t>median_score_peleke-mistral-7b-instruct-v0.2</t>
+  </si>
+  <si>
+    <t>median_score_peleke-phi-4</t>
   </si>
 </sst>
 </file>
@@ -257,10 +316,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F1FDD9-7314-4509-B870-EFA092B7D9EB}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +845,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,4 +961,378 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F46070-79C8-4777-927F-4BD414960031}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!B2, 2),"% (", ROUND('VDW_Hits (RAW)'!E2,2), ")")</f>
+        <v>22.73% (63.34)</v>
+      </c>
+      <c r="C3" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!C2, 2),"% (", ROUND('VDW_Hits (RAW)'!F2,2), ")")</f>
+        <v>15% (106.84)</v>
+      </c>
+      <c r="D3" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!D2, 2),"% (", ROUND('VDW_Hits (RAW)'!G2,2), ")")</f>
+        <v>18.42% (49.88)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!B3, 2),"% (", ROUND('VDW_Hits (RAW)'!E3,2), ")")</f>
+        <v>2.63% (218.86)</v>
+      </c>
+      <c r="C4" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!C3, 2),"% (", ROUND('VDW_Hits (RAW)'!F3,2), ")")</f>
+        <v>10.81% (289.61)</v>
+      </c>
+      <c r="D4" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!D3, 2),"% (", ROUND('VDW_Hits (RAW)'!G3,2), ")")</f>
+        <v>9.3% (131.62)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!B4, 2),"% (", ROUND('VDW_Hits (RAW)'!E4,2), ")")</f>
+        <v>20% (101.64)</v>
+      </c>
+      <c r="C5" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!C4, 2),"% (", ROUND('VDW_Hits (RAW)'!F4,2), ")")</f>
+        <v>23.26% (24.66)</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!D4, 2),"% (", ROUND('VDW_Hits (RAW)'!G4,2), ")")</f>
+        <v>20% (163.88)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!B5, 2),"% (", ROUND('VDW_Hits (RAW)'!E5,2), ")")</f>
+        <v>36.17% (-3.46)</v>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!C5, 2),"% (", ROUND('VDW_Hits (RAW)'!F5,2), ")")</f>
+        <v>46.81% (-10.11)</v>
+      </c>
+      <c r="D6" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!D5, 2),"% (", ROUND('VDW_Hits (RAW)'!G5,2), ")")</f>
+        <v>31.91% (13.64)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!B6, 2),"% (", ROUND('VDW_Hits (RAW)'!E6,2), ")")</f>
+        <v>67.39% (-52.56)</v>
+      </c>
+      <c r="C7" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!C6, 2),"% (", ROUND('VDW_Hits (RAW)'!F6,2), ")")</f>
+        <v>57.78% (-52.52)</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!D6, 2),"% (", ROUND('VDW_Hits (RAW)'!G6,2), ")")</f>
+        <v>69.39% (-57.98)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!B7, 2),"% (", ROUND('VDW_Hits (RAW)'!E7,2), ")")</f>
+        <v>73.47% (-66.72)</v>
+      </c>
+      <c r="C8" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!C7, 2),"% (", ROUND('VDW_Hits (RAW)'!F7,2), ")")</f>
+        <v>79.59% (-82.51)</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!D7, 2),"% (", ROUND('VDW_Hits (RAW)'!G7,2), ")")</f>
+        <v>76.6% (-70.12)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!B8, 2),"% (", ROUND('VDW_Hits (RAW)'!E8,2), ")")</f>
+        <v>79.59% (-71.53)</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!C8, 2),"% (", ROUND('VDW_Hits (RAW)'!F8,2), ")")</f>
+        <v>70.83% (-62.52)</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f>_xlfn.CONCAT(ROUND('VDW_Hits (RAW)'!D8, 2),"% (", ROUND('VDW_Hits (RAW)'!G8,2), ")")</f>
+        <v>72.92% (-73.38)</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF95AEB-55C3-45D1-9932-8EB9B965644C}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="7">
+        <v>22.727273</v>
+      </c>
+      <c r="C2" s="7">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7">
+        <v>18.421053000000001</v>
+      </c>
+      <c r="E2" s="7">
+        <v>63.343150000000001</v>
+      </c>
+      <c r="F2" s="7">
+        <v>106.839</v>
+      </c>
+      <c r="G2" s="7">
+        <v>49.881549999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2.6315789999999999</v>
+      </c>
+      <c r="C3" s="7">
+        <v>10.81081</v>
+      </c>
+      <c r="D3" s="7">
+        <v>9.3023260000000008</v>
+      </c>
+      <c r="E3" s="7">
+        <v>218.85599999999999</v>
+      </c>
+      <c r="F3" s="7">
+        <v>289.61399999999998</v>
+      </c>
+      <c r="G3" s="7">
+        <v>131.61600000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="7">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7">
+        <v>23.25581</v>
+      </c>
+      <c r="D4" s="7">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7">
+        <v>101.6448</v>
+      </c>
+      <c r="F4" s="7">
+        <v>24.6556</v>
+      </c>
+      <c r="G4" s="7">
+        <v>163.881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="7">
+        <v>36.170212999999997</v>
+      </c>
+      <c r="C5" s="7">
+        <v>46.808509999999998</v>
+      </c>
+      <c r="D5" s="7">
+        <v>31.914894</v>
+      </c>
+      <c r="E5" s="7">
+        <v>-3.4557799999999999</v>
+      </c>
+      <c r="F5" s="7">
+        <v>-10.110799999999999</v>
+      </c>
+      <c r="G5" s="7">
+        <v>13.6427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="7">
+        <v>67.391304000000005</v>
+      </c>
+      <c r="C6" s="7">
+        <v>57.77778</v>
+      </c>
+      <c r="D6" s="7">
+        <v>69.387754999999999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>-52.559049999999999</v>
+      </c>
+      <c r="F6" s="7">
+        <v>-52.519399999999997</v>
+      </c>
+      <c r="G6" s="7">
+        <v>-57.981499999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="7">
+        <v>73.469387999999995</v>
+      </c>
+      <c r="C7" s="7">
+        <v>79.591840000000005</v>
+      </c>
+      <c r="D7" s="7">
+        <v>76.595744999999994</v>
+      </c>
+      <c r="E7" s="7">
+        <v>-66.719499999999996</v>
+      </c>
+      <c r="F7" s="7">
+        <v>-82.513800000000003</v>
+      </c>
+      <c r="G7" s="7">
+        <v>-70.123900000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="7">
+        <v>79.591836999999998</v>
+      </c>
+      <c r="C8" s="7">
+        <v>70.833330000000004</v>
+      </c>
+      <c r="D8" s="7">
+        <v>72.916667000000004</v>
+      </c>
+      <c r="E8" s="7">
+        <v>-71.534400000000005</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-62.515549999999998</v>
+      </c>
+      <c r="G8" s="7">
+        <v>-73.379649999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>